--- a/AutoTestV4/cases_nodes.xlsx
+++ b/AutoTestV4/cases_nodes.xlsx
@@ -69,7 +69,7 @@
     <t>Operating Point--vi, Operating Point--vo</t>
   </si>
   <si>
-    <t>Transient Analysis--vi, Transient Analysis--vo</t>
+    <t>Transient Analysis--vi</t>
   </si>
   <si>
     <t>Operating Point--vd01#branch, Operating Point--vd02#branch, Operating Point--vd03#branch, Operating Point--vd04#branch, Operating Point--vd05#branch, Operating Point--vd06#branch, Operating Point--vd07#branch, Operating Point--vd08#branch, Operating Point--vd09#branch, Operating Point--vd10#branch, Operating Point--vd11#branch, Operating Point--vd12#branch, Operating Point--vd13#branch, Operating Point--vd20#branch, Operating Point--vd21#branch</t>
@@ -207,7 +207,7 @@
     <t>Transient Analysis--Vout, Oscillator Steady State Analysis--Vout, Oscillator Steady State Spectrum--Vout, Oscillator Phase Noise Analysis--out</t>
   </si>
   <si>
-    <t>Harmonic Balance Oscillator Steady State Analysis--Vout, Harmonic Balance Oscillator Steady State Spectrum--Vout, Oscillator Phase Noise Analysis--out</t>
+    <t>Harmonic Balance Oscillator Steady State Analysis--Vout, Oscillator Phase Noise Analysis--out</t>
   </si>
   <si>
     <t>Transient Analysis--net025, Oscillator Steady State Analysis--net025, Oscillator Steady State Spectrum--net025, Oscillator Phase Noise Analysis--out</t>
@@ -1202,8 +1202,8 @@
   <sheetPr/>
   <dimension ref="A1:E110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="H60" sqref="H60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
